--- a/FishLandings/household groups/statistics/Species Richness_output.xlsx
+++ b/FishLandings/household groups/statistics/Species Richness_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>176.641026</v>
+        <v>301.070175</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>83.636263</v>
+        <v>127.794305</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>6.755214</v>
+        <v>8.451268000000001</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1.599234</v>
+        <v>1.793641</v>
       </c>
       <c r="E3">
-        <v>0.20436</v>
+        <v>0.167962</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>470.9793</v>
+        <v>782.157687</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>0.208002</v>
+        <v>0.337557</v>
       </c>
       <c r="H5">
-        <v>-0.426697</v>
+        <v>-0.218939</v>
       </c>
       <c r="I5">
-        <v>0.8427</v>
+        <v>0.894053</v>
       </c>
       <c r="J5">
-        <v>0.719831</v>
+        <v>0.327635</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>0.491513</v>
+        <v>0.468996</v>
       </c>
       <c r="H6">
-        <v>-0.191923</v>
+        <v>-0.115514</v>
       </c>
       <c r="I6">
-        <v>1.174949</v>
+        <v>1.053505</v>
       </c>
       <c r="J6">
-        <v>0.208633</v>
+        <v>0.143438</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>0.283511</v>
+        <v>0.131439</v>
       </c>
       <c r="H7">
-        <v>-0.233173</v>
+        <v>-0.308073</v>
       </c>
       <c r="I7">
-        <v>0.800196</v>
+        <v>0.570951</v>
       </c>
       <c r="J7">
-        <v>0.399663</v>
+        <v>0.761257</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/household groups/statistics/Species Richness_output.xlsx
+++ b/FishLandings/household groups/statistics/Species Richness_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>301.070175</v>
+        <v>176.641026</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>127.794305</v>
+        <v>83.636263</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>8.451268000000001</v>
+        <v>6.755214</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1.793641</v>
+        <v>1.599234</v>
       </c>
       <c r="E3">
-        <v>0.167962</v>
+        <v>0.20436</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>782.157687</v>
+        <v>470.9793</v>
       </c>
       <c r="C4">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>0.337557</v>
+        <v>0.208002</v>
       </c>
       <c r="H5">
-        <v>-0.218939</v>
+        <v>-0.426697</v>
       </c>
       <c r="I5">
-        <v>0.894053</v>
+        <v>0.8427</v>
       </c>
       <c r="J5">
-        <v>0.327635</v>
+        <v>0.719831</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>0.468996</v>
+        <v>0.491513</v>
       </c>
       <c r="H6">
-        <v>-0.115514</v>
+        <v>-0.191923</v>
       </c>
       <c r="I6">
-        <v>1.053505</v>
+        <v>1.174949</v>
       </c>
       <c r="J6">
-        <v>0.143438</v>
+        <v>0.208633</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>0.131439</v>
+        <v>0.283511</v>
       </c>
       <c r="H7">
-        <v>-0.308073</v>
+        <v>-0.233173</v>
       </c>
       <c r="I7">
-        <v>0.570951</v>
+        <v>0.800196</v>
       </c>
       <c r="J7">
-        <v>0.761257</v>
+        <v>0.399663</v>
       </c>
     </row>
   </sheetData>
